--- a/downloaded_files/MTHS204_Tutorial-35060.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35060.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى طارق عوض مرعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Tarek Awad Ali Marei</x:t>
   </x:si>
   <x:si>
     <x:t>1210242</x:t>
@@ -563,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1466,7 +1475,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45923.9203420486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5344587153</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45914.5344587153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5419322569</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45915.5419322569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1654,9 +1663,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5499803588</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1679,16 +1690,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.4150554398</x:v>
+        <x:v>45915.5499803588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4150134606</x:v>
+        <x:v>45909.4150554398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45909.4150134606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5420711458</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45915.5420711458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4197901968</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,9 +1885,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5496765394</x:v>
+        <x:v>45907.4197901968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1901,16 +1912,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45915.5496765394</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5494076389</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45915.5494076389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2134,7 +2143,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5411712616</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2166,7 +2175,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200434028</x:v>
+        <x:v>45915.5411712616</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2198,7 +2207,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5413199074</x:v>
+        <x:v>45907.4200434028</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2230,7 +2239,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5414079861</x:v>
+        <x:v>45915.5413199074</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.54928125</x:v>
+        <x:v>45915.5414079861</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5517790509</x:v>
+        <x:v>45915.54928125</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2326,7 +2335,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.863103588</x:v>
+        <x:v>45915.5517790509</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2358,7 +2367,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5412542477</x:v>
+        <x:v>45916.863103588</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2390,7 +2399,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45915.5412542477</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2422,7 +2431,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2439,6 +2448,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Tutorial-35060.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35060.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Adam Amr Moharram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسر هيثم عبد العزيز محمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asser Haitham Abdulaziz Mohamed Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230019</x:t>
@@ -572,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -872,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1123,7 +1132,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.415237581</x:v>
+        <x:v>45934.8633612616</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4191016551</x:v>
+        <x:v>45909.415237581</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5520195602</x:v>
+        <x:v>45907.4191016551</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200421296</x:v>
+        <x:v>45915.5520195602</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.551908912</x:v>
+        <x:v>45907.4200421296</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45915.551908912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4150041667</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5419980671</x:v>
+        <x:v>45909.4150041667</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45915.5419980671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4148371528</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.9203420486</x:v>
+        <x:v>45909.4148371528</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45923.9203420486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5344587153</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45914.5344587153</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1603,7 +1612,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.5419322569</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1635,7 +1644,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45915.5419322569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1667,7 +1676,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1695,9 +1704,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5499803588</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1720,16 +1731,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45909.4150554398</x:v>
+        <x:v>45915.5499803588</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4150134606</x:v>
+        <x:v>45909.4150554398</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45909.4150134606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5420711458</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45915.5420711458</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4197901968</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,9 +1926,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5496765394</x:v>
+        <x:v>45907.4197901968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1942,16 +1953,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45915.5496765394</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1983,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5494076389</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45915.5494076389</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2143,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2175,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5411712616</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2207,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4200434028</x:v>
+        <x:v>45915.5411712616</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2239,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5413199074</x:v>
+        <x:v>45907.4200434028</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2271,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.5414079861</x:v>
+        <x:v>45915.5413199074</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2303,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.54928125</x:v>
+        <x:v>45915.5414079861</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2335,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5517790509</x:v>
+        <x:v>45915.54928125</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2367,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.863103588</x:v>
+        <x:v>45915.5517790509</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2399,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5412542477</x:v>
+        <x:v>45916.863103588</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45915.5412542477</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2480,6 +2489,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS204_Tutorial-35060.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35060.xlsx
@@ -69,15 +69,6 @@
     <x:t>Ahmed Mohamed Abdeltawab Alsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادم عمرو محرم عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adam Amr Moharram</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230003</x:t>
   </x:si>
   <x:si>
@@ -307,6 +298,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2240006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فارس احمد سيد احمد شافعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fares</x:t>
   </x:si>
   <x:si>
     <x:t>4240033</x:t>
@@ -1100,7 +1100,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4200732986</x:v>
+        <x:v>45934.8633612616</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1132,7 +1132,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45934.8633612616</x:v>
+        <x:v>45909.415237581</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1164,7 +1164,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.415237581</x:v>
+        <x:v>45907.4191016551</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1196,7 +1196,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4191016551</x:v>
+        <x:v>45915.5520195602</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1228,7 +1228,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5520195602</x:v>
+        <x:v>45907.4200421296</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1260,7 +1260,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200421296</x:v>
+        <x:v>45915.551908912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1292,7 +1292,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.551908912</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1324,7 +1324,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45909.4150041667</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1356,7 +1356,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4150041667</x:v>
+        <x:v>45915.5419980671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1388,7 +1388,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5419980671</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1420,7 +1420,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1452,7 +1452,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45909.4148371528</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1484,7 +1484,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4148371528</x:v>
+        <x:v>45923.9203420486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1516,7 +1516,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.9203420486</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1548,7 +1548,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45914.5344587153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1580,7 +1580,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5344587153</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1612,7 +1612,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45915.5419322569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1644,7 +1644,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5419322569</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1676,7 +1676,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1704,11 +1704,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45915.5499803588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1731,14 +1729,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45915.5499803588</x:v>
+        <x:v>45909.4150554398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1770,7 +1770,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4150554398</x:v>
+        <x:v>45909.4150134606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1802,7 +1802,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4150134606</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1834,7 +1834,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45915.5420711458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1866,7 +1866,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5420711458</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1898,7 +1898,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4197901968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1930,7 +1930,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4197901968</x:v>
+        <x:v>45915.6356466782</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/MTHS204_Tutorial-35060.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35060.xlsx
@@ -210,7 +210,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1230059</x:t>
@@ -330,7 +330,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1220192</x:t>
@@ -438,7 +438,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1240173</x:t>

--- a/downloaded_files/MTHS204_Tutorial-35060.xlsx
+++ b/downloaded_files/MTHS204_Tutorial-35060.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230145</x:t>
